--- a/run_entrance/test_suite/test_suite_hc03补齐补正通过.xlsx
+++ b/run_entrance/test_suite/test_suite_hc03补齐补正通过.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -312,12 +312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,19 +336,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -366,10 +357,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,10 +393,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,48 +440,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,14 +473,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,187 +507,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,15 +698,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -715,6 +712,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,6 +773,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -757,41 +798,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,137 +818,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,6 +1005,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,10 +1361,10 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1363,8 +1372,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="21" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1378,10 +1387,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1401,7 +1410,7 @@
       <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1416,7 +1425,7 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1431,7 +1440,7 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1448,7 +1457,7 @@
       <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1462,7 +1471,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1476,10 +1485,10 @@
       <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1491,7 +1500,7 @@
       <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -1508,10 +1517,10 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1522,10 +1531,10 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1536,7 +1545,7 @@
       <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -1550,10 +1559,10 @@
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1561,13 +1570,13 @@
       <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1578,10 +1587,10 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1592,7 +1601,7 @@
       <c r="C15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -1606,10 +1615,10 @@
       <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1623,10 +1632,10 @@
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1638,7 +1647,7 @@
       <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -1652,7 +1661,7 @@
       <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -1666,7 +1675,7 @@
       <c r="C20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -1680,7 +1689,7 @@
       <c r="C21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -1694,7 +1703,7 @@
       <c r="C22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -1726,12 +1735,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1743,7 +1755,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1855,10 +1867,10 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1907,7 +1919,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="9"/>

--- a/run_entrance/test_suite/test_suite_hc03补齐补正通过.xlsx
+++ b/run_entrance/test_suite/test_suite_hc03补齐补正通过.xlsx
@@ -312,10 +312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -342,23 +342,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,14 +375,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,22 +397,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,55 +471,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,187 +507,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +698,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,56 +743,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +774,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -806,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,133 +818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1870,7 +1870,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2112,7 +2112,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
